--- a/13_jsp_mvc1/WebContent/step3_boardEx/LISTING.xlsx
+++ b/13_jsp_mvc1/WebContent/step3_boardEx/LISTING.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19_web_syj\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">BOARD_ID </t>
   </si>
@@ -77,6 +73,40 @@
   </si>
   <si>
     <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WRITER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBJECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSWORD </t>
+  </si>
+  <si>
+    <t>READ_CNT</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>insertBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBoardDetail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +145,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +172,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,32 +193,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,79 +525,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
